--- a/fhir/core/StructureDefinition-ipa-dk-core-patient.xlsx
+++ b/fhir/core/StructureDefinition-ipa-dk-core-patient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-01T19:23:09+01:00</t>
+    <t>2025-12-19T17:27:08+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>HL7 Denmark (http://www.hl7.dk, jenskristianvilladsen@gmail.com)</t>
+    <t>HL7 Denmark (http://www.hl7.dk, dk-affiliate@hl7.dk)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -368,7 +368,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -1499,7 +1499,7 @@
     <t>Patient.contact.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1650,7 +1650,7 @@
     <t>referencedSORUnit</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(Organization|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -1710,7 +1710,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -2158,17 +2158,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.07421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.0546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.95703125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.8671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="191.51953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="165.2109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2177,27 +2177,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="39.6953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="68.9453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="64.95703125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="21.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.2421875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="59.47265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.03125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.74609375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="28.8359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="151.51171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="39.390625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="103.671875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.4375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="130.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="33.98046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="28.5078125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="89.4296875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.4296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
